--- a/BOM/INVENTORY.xlsx
+++ b/BOM/INVENTORY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTORY" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="226">
   <si>
     <t>Arduino Nano</t>
   </si>
@@ -1314,6 +1314,9 @@
   <si>
     <t>TODO -- INSERT EXPLODED ASSEMBLY VIEWS</t>
   </si>
+  <si>
+    <t>3D HUBS (BEN'S HUB) BLACK CASING V2</t>
+  </si>
 </sst>
 </file>
 
@@ -1322,7 +1325,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -1871,7 +1874,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2262,31 +2265,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2296,35 +2299,11 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2338,6 +2317,36 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2856,11 +2865,11 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB166"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,7 +2956,7 @@
       <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C4" s="194">
+      <c r="C4" s="201">
         <v>42882</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2962,26 +2971,26 @@
       <c r="G4" s="27">
         <v>6.99</v>
       </c>
-      <c r="H4" s="195">
+      <c r="H4" s="203">
         <f>SUM(G4:G10)</f>
         <v>48.1</v>
       </c>
-      <c r="I4" s="193">
+      <c r="I4" s="202">
         <v>0</v>
       </c>
-      <c r="J4" s="195">
+      <c r="J4" s="203">
         <f>H4+I4</f>
         <v>48.1</v>
       </c>
-      <c r="K4" s="196">
+      <c r="K4" s="200">
         <f>G4/E4</f>
         <v>6.99</v>
       </c>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C5" s="194"/>
+      <c r="C5" s="201"/>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2994,18 +3003,18 @@
       <c r="G5" s="27">
         <v>6.99</v>
       </c>
-      <c r="H5" s="191"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="196">
+      <c r="H5" s="204"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="200">
         <f t="shared" ref="K5:K10" si="0">G5/E5</f>
         <v>6.99</v>
       </c>
-      <c r="L5" s="196"/>
-      <c r="M5" s="196"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C6" s="194"/>
+      <c r="C6" s="201"/>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3018,18 +3027,18 @@
       <c r="G6" s="27">
         <v>4.97</v>
       </c>
-      <c r="H6" s="191"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="196">
+      <c r="H6" s="204"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="200">
         <f t="shared" si="0"/>
         <v>0.2485</v>
       </c>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C7" s="194"/>
+      <c r="C7" s="201"/>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3042,18 +3051,18 @@
       <c r="G7" s="27">
         <v>5.99</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="196">
+      <c r="H7" s="204"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="200">
         <f t="shared" si="0"/>
         <v>0.29949999999999999</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C8" s="194"/>
+      <c r="C8" s="201"/>
       <c r="D8" s="1" t="s">
         <v>155</v>
       </c>
@@ -3066,18 +3075,18 @@
       <c r="G8" s="27">
         <v>6.25</v>
       </c>
-      <c r="H8" s="191"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="196">
+      <c r="H8" s="204"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="200">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C9" s="194"/>
+      <c r="C9" s="201"/>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3090,18 +3099,18 @@
       <c r="G9" s="27">
         <v>11.59</v>
       </c>
-      <c r="H9" s="191"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="196">
+      <c r="H9" s="204"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="200">
         <f t="shared" si="0"/>
         <v>0.57950000000000002</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C10" s="194"/>
+      <c r="C10" s="201"/>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
@@ -3114,15 +3123,15 @@
       <c r="G10" s="27">
         <v>5.32</v>
       </c>
-      <c r="H10" s="191"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="196">
+      <c r="H10" s="204"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="200">
         <f t="shared" si="0"/>
         <v>1.0640000000000001</v>
       </c>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
     </row>
     <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
@@ -3229,14 +3238,14 @@
       <c r="G16" s="27">
         <v>6.56</v>
       </c>
-      <c r="H16" s="195">
+      <c r="H16" s="203">
         <f>SUM(G16:G17)</f>
         <v>7.55</v>
       </c>
-      <c r="I16" s="193">
+      <c r="I16" s="202">
         <v>0</v>
       </c>
-      <c r="J16" s="195">
+      <c r="J16" s="203">
         <f>H16+I16</f>
         <v>7.55</v>
       </c>
@@ -3257,9 +3266,9 @@
       <c r="G17" s="27">
         <v>0.99</v>
       </c>
-      <c r="H17" s="195"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="195"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="3:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
@@ -3311,7 +3320,7 @@
       <c r="L20" s="35"/>
     </row>
     <row r="21" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="194">
+      <c r="C21" s="201">
         <v>42925</v>
       </c>
       <c r="D21" s="149" t="s">
@@ -3326,20 +3335,20 @@
       <c r="G21" s="27">
         <v>2.56</v>
       </c>
-      <c r="H21" s="195">
+      <c r="H21" s="203">
         <f>SUM(G21:G25)</f>
         <v>17.230000000000004</v>
       </c>
-      <c r="I21" s="193">
+      <c r="I21" s="202">
         <v>5.65</v>
       </c>
-      <c r="J21" s="195">
+      <c r="J21" s="203">
         <f>H21+I21</f>
         <v>22.880000000000003</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="194"/>
+      <c r="C22" s="201"/>
       <c r="D22" s="149" t="s">
         <v>21</v>
       </c>
@@ -3352,12 +3361,12 @@
       <c r="G22" s="27">
         <v>1.8</v>
       </c>
-      <c r="H22" s="191"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="191"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="204"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="194"/>
+      <c r="C23" s="201"/>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3370,12 +3379,12 @@
       <c r="G23" s="27">
         <v>3.99</v>
       </c>
-      <c r="H23" s="191"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="191"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="204"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="194"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="149" t="s">
         <v>13</v>
       </c>
@@ -3388,12 +3397,12 @@
       <c r="G24" s="27">
         <v>1.97</v>
       </c>
-      <c r="H24" s="191"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="191"/>
+      <c r="H24" s="204"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="204"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="194"/>
+      <c r="C25" s="201"/>
       <c r="D25" s="1" t="s">
         <v>2</v>
       </c>
@@ -3406,9 +3415,9 @@
       <c r="G25" s="27">
         <v>6.91</v>
       </c>
-      <c r="H25" s="191"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="191"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="204"/>
     </row>
     <row r="26" spans="3:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
@@ -3422,7 +3431,7 @@
       <c r="L26" s="35"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="194">
+      <c r="C27" s="201">
         <v>42927</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3437,20 +3446,20 @@
       <c r="G27" s="27">
         <v>0.75</v>
       </c>
-      <c r="H27" s="195">
+      <c r="H27" s="203">
         <f>SUM(G27:G29)</f>
         <v>3.44</v>
       </c>
-      <c r="I27" s="193">
+      <c r="I27" s="202">
         <v>4.99</v>
       </c>
-      <c r="J27" s="195">
+      <c r="J27" s="203">
         <f>H27+I27</f>
         <v>8.43</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="194"/>
+      <c r="C28" s="201"/>
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3463,12 +3472,12 @@
       <c r="G28" s="27">
         <v>0.75</v>
       </c>
-      <c r="H28" s="191"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="191"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="204"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="194"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="1" t="s">
         <v>154</v>
       </c>
@@ -3481,9 +3490,9 @@
       <c r="G29" s="27">
         <v>1.94</v>
       </c>
-      <c r="H29" s="191"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="191"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="204"/>
     </row>
     <row r="30" spans="3:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
@@ -3534,8 +3543,8 @@
       <c r="J32" s="13"/>
       <c r="L32" s="35"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="194">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" s="201">
         <v>42929</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3550,20 +3559,20 @@
       <c r="G33" s="27">
         <v>0.77</v>
       </c>
-      <c r="H33" s="195">
+      <c r="H33" s="203">
         <f>SUM(G33:G34)</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="I33" s="193">
+      <c r="I33" s="202">
         <v>3.39</v>
       </c>
-      <c r="J33" s="193">
+      <c r="J33" s="202">
         <f>SUM(H33:I34)</f>
         <v>5.6899999999999995</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C34" s="194"/>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C34" s="201"/>
       <c r="D34" s="1" t="s">
         <v>76</v>
       </c>
@@ -3576,11 +3585,11 @@
       <c r="G34" s="27">
         <v>1.53</v>
       </c>
-      <c r="H34" s="191"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
-    </row>
-    <row r="35" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="204"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="202"/>
+    </row>
+    <row r="35" spans="3:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="24"/>
@@ -3591,7 +3600,7 @@
       <c r="J35" s="13"/>
       <c r="L35" s="35"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="77">
         <v>42930</v>
       </c>
@@ -3618,7 +3627,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="24"/>
@@ -3629,8 +3638,8 @@
       <c r="J37" s="13"/>
       <c r="L37" s="35"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="194">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C38" s="201">
         <v>42931</v>
       </c>
       <c r="D38" s="149" t="s">
@@ -3645,20 +3654,20 @@
       <c r="G38" s="27">
         <v>5.72</v>
       </c>
-      <c r="H38" s="193">
+      <c r="H38" s="202">
         <f>SUM(G38:G39)</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="I38" s="193">
+      <c r="I38" s="202">
         <v>4.99</v>
       </c>
-      <c r="J38" s="193">
+      <c r="J38" s="202">
         <f>SUM(H38:I39)</f>
         <v>13.540000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="194"/>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C39" s="201"/>
       <c r="D39" s="149" t="s">
         <v>122</v>
       </c>
@@ -3671,11 +3680,11 @@
       <c r="G39" s="27">
         <v>2.83</v>
       </c>
-      <c r="H39" s="193"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="193"/>
-    </row>
-    <row r="40" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="202"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="202"/>
+    </row>
+    <row r="40" spans="3:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="24"/>
@@ -3686,8 +3695,8 @@
       <c r="J40" s="13"/>
       <c r="L40" s="35"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C41" s="194">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C41" s="201">
         <v>42936</v>
       </c>
       <c r="D41" s="149" t="s">
@@ -3702,20 +3711,20 @@
       <c r="G41" s="27">
         <v>10.58</v>
       </c>
-      <c r="H41" s="193">
+      <c r="H41" s="202">
         <f>SUM(G41:G45)</f>
         <v>18.649999999999999</v>
       </c>
-      <c r="I41" s="193">
+      <c r="I41" s="202">
         <v>0.25</v>
       </c>
-      <c r="J41" s="193">
+      <c r="J41" s="202">
         <f>H41+I41</f>
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="194"/>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C42" s="201"/>
       <c r="D42" s="149" t="s">
         <v>150</v>
       </c>
@@ -3728,12 +3737,12 @@
       <c r="G42" s="27">
         <v>3.86</v>
       </c>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="194"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="202"/>
+      <c r="J42" s="202"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C43" s="201"/>
       <c r="D43" s="149" t="s">
         <v>151</v>
       </c>
@@ -3747,12 +3756,12 @@
         <f>1.99-0.1</f>
         <v>1.89</v>
       </c>
-      <c r="H43" s="193"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="193"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="194"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C44" s="201"/>
       <c r="D44" s="149" t="s">
         <v>152</v>
       </c>
@@ -3766,12 +3775,12 @@
         <f>0.99-0.05</f>
         <v>0.94</v>
       </c>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="193"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="194"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="202"/>
+      <c r="J44" s="202"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45" s="201"/>
       <c r="D45" s="149" t="s">
         <v>153</v>
       </c>
@@ -3785,118 +3794,133 @@
         <f>1.45-0.07</f>
         <v>1.38</v>
       </c>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="193"/>
-    </row>
-    <row r="46" spans="2:14" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="9"/>
-      <c r="L46" s="35"/>
-    </row>
-    <row r="47" spans="2:14" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="41">
-        <f ca="1">TODAY()</f>
-        <v>42984</v>
-      </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="30">
-        <f>SUM(J4:J46)</f>
-        <v>200.16</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="39">
-        <f ca="1">(C47-C4)*0.0328767</f>
-        <v>3.3534234000000001</v>
-      </c>
-      <c r="M47" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="202"/>
+      <c r="I45" s="202"/>
+      <c r="J45" s="202"/>
+    </row>
+    <row r="46" spans="3:12" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="51"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
+      <c r="J46" s="158"/>
+      <c r="L46" s="57"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C47" s="191">
+        <v>42985</v>
+      </c>
+      <c r="D47" s="149" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="26">
+        <v>1</v>
+      </c>
+      <c r="F47" s="26">
+        <v>1</v>
+      </c>
+      <c r="G47" s="27">
+        <v>3.78</v>
+      </c>
+      <c r="H47" s="190">
+        <v>3.78</v>
+      </c>
+      <c r="I47" s="190">
+        <v>0</v>
+      </c>
+      <c r="J47" s="190">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" s="22">
-        <f ca="1">J47/L47</f>
-        <v>59.688257677214274</v>
-      </c>
-      <c r="K48" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L48" s="36"/>
-      <c r="M48" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="N48" s="33"/>
-    </row>
-    <row r="49" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-    </row>
-    <row r="50" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="9"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="9"/>
+      <c r="L48" s="35"/>
+    </row>
+    <row r="49" spans="1:15" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="41">
+        <f ca="1">TODAY()</f>
+        <v>42985</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="30">
+        <f>SUM(J4:J48)</f>
+        <v>203.94</v>
+      </c>
+      <c r="K49" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="39">
+        <f ca="1">(C49-C4)*0.0328767</f>
+        <v>3.3863001000000001</v>
+      </c>
+      <c r="M49" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="7"/>
-      <c r="D50" s="63" t="s">
-        <v>75</v>
-      </c>
+      <c r="D50" s="8"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="10"/>
-      <c r="L50" s="35"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="22">
+        <f ca="1">J49/L49</f>
+        <v>60.225022584383467</v>
+      </c>
+      <c r="K50" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="36"/>
+      <c r="M50" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" s="33"/>
     </row>
     <row r="51" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="10"/>
-      <c r="L51" s="35"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
     </row>
     <row r="52" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="63" t="s">
+        <v>75</v>
+      </c>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
       <c r="G52" s="25"/>
@@ -3906,10 +3930,8 @@
       <c r="L52" s="35"/>
     </row>
     <row r="53" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="148"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="25"/>
@@ -3919,50 +3941,40 @@
       <c r="L53" s="35"/>
     </row>
     <row r="54" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="49"/>
-      <c r="D54" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="99">
-        <v>3.39</v>
-      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="10"/>
       <c r="I54" s="11"/>
       <c r="J54" s="10"/>
       <c r="L54" s="35"/>
     </row>
     <row r="55" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="G55" s="99">
-        <v>1.39</v>
-      </c>
+      <c r="C55" s="147" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="148"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="10"/>
       <c r="I55" s="11"/>
       <c r="J55" s="10"/>
       <c r="L55" s="35"/>
     </row>
     <row r="56" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-      <c r="D56" s="95" t="str">
-        <f>D24</f>
-        <v>NOKIA 5110 LCD</v>
+      <c r="C56" s="49"/>
+      <c r="D56" s="95" t="s">
+        <v>0</v>
       </c>
       <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
+      <c r="F56" s="98" t="s">
+        <v>160</v>
+      </c>
       <c r="G56" s="99">
-        <f>G24</f>
-        <v>1.97</v>
+        <v>3.39</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="11"/>
@@ -3972,12 +3984,14 @@
     <row r="57" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
       <c r="D57" s="95" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
+      <c r="F57" s="98" t="s">
+        <v>160</v>
+      </c>
       <c r="G57" s="99">
-        <v>0.2485</v>
+        <v>1.39</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="11"/>
@@ -3986,13 +4000,15 @@
     </row>
     <row r="58" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
-      <c r="D58" s="95" t="s">
-        <v>156</v>
+      <c r="D58" s="95" t="str">
+        <f>D24</f>
+        <v>NOKIA 5110 LCD</v>
       </c>
       <c r="E58" s="98"/>
       <c r="F58" s="98"/>
       <c r="G58" s="99">
-        <v>0.29949999999999999</v>
+        <f>G24</f>
+        <v>1.97</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="11"/>
@@ -4002,12 +4018,12 @@
     <row r="59" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="D59" s="95" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="E59" s="98"/>
       <c r="F59" s="98"/>
       <c r="G59" s="99">
-        <v>1</v>
+        <v>0.2485</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="11"/>
@@ -4017,12 +4033,12 @@
     <row r="60" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
       <c r="D60" s="95" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E60" s="98"/>
       <c r="F60" s="98"/>
       <c r="G60" s="99">
-        <v>6.25</v>
+        <v>0.29949999999999999</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="11"/>
@@ -4032,12 +4048,12 @@
     <row r="61" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="95" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E61" s="98"/>
       <c r="F61" s="98"/>
       <c r="G61" s="99">
-        <v>0.57950000000000002</v>
+        <v>1</v>
       </c>
       <c r="H61" s="10"/>
       <c r="I61" s="11"/>
@@ -4047,12 +4063,12 @@
     <row r="62" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
       <c r="D62" s="95" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="E62" s="98"/>
       <c r="F62" s="98"/>
       <c r="G62" s="99">
-        <v>1.0640000000000001</v>
+        <v>6.25</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="11"/>
@@ -4062,12 +4078,12 @@
     <row r="63" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
       <c r="D63" s="95" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E63" s="98"/>
       <c r="F63" s="98"/>
       <c r="G63" s="99">
-        <v>0.5</v>
+        <v>0.57950000000000002</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="11"/>
@@ -4075,61 +4091,69 @@
       <c r="L63" s="35"/>
     </row>
     <row r="64" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="44"/>
-      <c r="D64" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="100"/>
-      <c r="F64" s="100"/>
-      <c r="G64" s="101">
-        <v>2</v>
-      </c>
-      <c r="H64" s="48"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="99">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="H64" s="10"/>
       <c r="I64" s="11"/>
       <c r="J64" s="10"/>
       <c r="L64" s="35"/>
     </row>
     <row r="65" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="97">
-        <f>SUM(G54:G64)</f>
-        <v>18.691499999999998</v>
-      </c>
-      <c r="H65" s="48"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="10"/>
+      <c r="L65" s="35"/>
     </row>
     <row r="66" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="10"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="101">
+        <v>2</v>
+      </c>
+      <c r="H66" s="48"/>
       <c r="I66" s="11"/>
       <c r="J66" s="10"/>
       <c r="L66" s="35"/>
     </row>
     <row r="67" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="10"/>
-      <c r="L67" s="35"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="97">
+        <f>SUM(G56:G66)</f>
+        <v>18.691499999999998</v>
+      </c>
+      <c r="H67" s="48"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
     </row>
     <row r="68" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
@@ -4153,95 +4177,75 @@
       <c r="J69" s="10"/>
       <c r="L69" s="35"/>
     </row>
-    <row r="70" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="93" t="s">
+    <row r="70" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="10"/>
+      <c r="L70" s="35"/>
+    </row>
+    <row r="71" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="10"/>
+      <c r="L71" s="35"/>
+    </row>
+    <row r="72" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="94"/>
-      <c r="E70" s="18"/>
-      <c r="H70" s="14" t="s">
+      <c r="D72" s="94"/>
+      <c r="E72" s="18"/>
+      <c r="H72" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="I70" s="17" t="s">
+      <c r="I72" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="J72" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="K72" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L70" s="14"/>
-    </row>
-    <row r="71" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C71" s="144"/>
-      <c r="D71" s="151" t="s">
-        <v>170</v>
-      </c>
-      <c r="E71" s="98"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="99">
-        <v>1.53</v>
-      </c>
-      <c r="H71" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="I71" s="158"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="159"/>
-    </row>
-    <row r="72" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C72" s="144"/>
-      <c r="D72" s="151" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="98"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="99">
-        <v>33.57</v>
-      </c>
-      <c r="H72" s="157" t="s">
-        <v>173</v>
-      </c>
-      <c r="I72" s="158"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="159"/>
+      <c r="L72" s="14"/>
     </row>
     <row r="73" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C73" s="144"/>
       <c r="D73" s="151" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E73" s="98"/>
       <c r="F73" s="98"/>
       <c r="G73" s="99">
-        <v>6.56</v>
+        <v>1.53</v>
       </c>
       <c r="H73" s="157" t="s">
-        <v>173</v>
-      </c>
-      <c r="I73" s="158">
-        <v>4.99</v>
-      </c>
-      <c r="J73" s="157">
-        <v>1</v>
-      </c>
-      <c r="K73" s="157">
-        <v>1.39</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I73" s="158"/>
+      <c r="J73" s="157"/>
+      <c r="K73" s="157"/>
       <c r="L73" s="159"/>
     </row>
     <row r="74" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C74" s="144"/>
       <c r="D74" s="151" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E74" s="98"/>
       <c r="F74" s="98"/>
       <c r="G74" s="99">
-        <v>2.57</v>
+        <v>33.57</v>
       </c>
       <c r="H74" s="157" t="s">
         <v>173</v>
@@ -4254,30 +4258,36 @@
     <row r="75" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C75" s="144"/>
       <c r="D75" s="151" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E75" s="98"/>
       <c r="F75" s="98"/>
       <c r="G75" s="99">
-        <v>5.22</v>
+        <v>6.56</v>
       </c>
       <c r="H75" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="I75" s="158"/>
-      <c r="J75" s="157"/>
-      <c r="K75" s="157"/>
+      <c r="I75" s="158">
+        <v>4.99</v>
+      </c>
+      <c r="J75" s="157">
+        <v>1</v>
+      </c>
+      <c r="K75" s="157">
+        <v>1.39</v>
+      </c>
       <c r="L75" s="159"/>
     </row>
     <row r="76" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C76" s="144"/>
       <c r="D76" s="151" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="E76" s="98"/>
       <c r="F76" s="98"/>
       <c r="G76" s="99">
-        <v>0.39900000000000002</v>
+        <v>2.57</v>
       </c>
       <c r="H76" s="157" t="s">
         <v>173</v>
@@ -4287,54 +4297,55 @@
       <c r="K76" s="157"/>
       <c r="L76" s="159"/>
     </row>
-    <row r="77" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C77" s="145"/>
+    <row r="77" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C77" s="144"/>
       <c r="D77" s="151" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E77" s="98"/>
       <c r="F77" s="98"/>
       <c r="G77" s="99">
-        <v>0.77</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I77" s="13"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="38"/>
-    </row>
-    <row r="78" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C78" s="145"/>
+        <v>5.22</v>
+      </c>
+      <c r="H77" s="157" t="s">
+        <v>173</v>
+      </c>
+      <c r="I77" s="158"/>
+      <c r="J77" s="157"/>
+      <c r="K77" s="157"/>
+      <c r="L77" s="159"/>
+    </row>
+    <row r="78" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C78" s="144"/>
       <c r="D78" s="151" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="E78" s="98"/>
       <c r="F78" s="98"/>
       <c r="G78" s="99">
-        <v>0.02</v>
-      </c>
-      <c r="H78" s="9" t="s">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H78" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="I78" s="13"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="38"/>
+      <c r="I78" s="158"/>
+      <c r="J78" s="157"/>
+      <c r="K78" s="157"/>
+      <c r="L78" s="159"/>
     </row>
     <row r="79" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C79" s="145"/>
-      <c r="D79" s="153" t="s">
-        <v>171</v>
+      <c r="D79" s="151" t="s">
+        <v>73</v>
       </c>
       <c r="E79" s="98"/>
       <c r="F79" s="98"/>
       <c r="G79" s="99">
-        <f>5.72+(0.5*4.99)</f>
-        <v>8.2149999999999999</v>
-      </c>
-      <c r="H79" s="9"/>
+        <v>0.77</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="I79" s="13"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -4343,147 +4354,152 @@
     <row r="80" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C80" s="145"/>
       <c r="D80" s="151" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="E80" s="98"/>
       <c r="F80" s="98"/>
       <c r="G80" s="99">
-        <f>2.83+(0.5*4.99)</f>
-        <v>5.3250000000000002</v>
-      </c>
-      <c r="H80" s="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="I80" s="13"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="38"/>
     </row>
     <row r="81" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C81" s="146"/>
-      <c r="D81" s="152" t="s">
-        <v>74</v>
-      </c>
-      <c r="E81" s="100"/>
-      <c r="F81" s="100"/>
-      <c r="G81" s="101">
-        <v>1.53</v>
-      </c>
-      <c r="H81" s="160" t="s">
-        <v>174</v>
-      </c>
+      <c r="C81" s="145"/>
+      <c r="D81" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="99">
+        <f>5.72+(0.5*4.99)</f>
+        <v>8.2149999999999999</v>
+      </c>
+      <c r="H81" s="9"/>
       <c r="I81" s="13"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="38"/>
     </row>
-    <row r="82" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="67"/>
-      <c r="B82" s="67"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="97">
-        <f>SUM(G71:G81)</f>
+    <row r="82" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C82" s="145"/>
+      <c r="D82" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="98"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="99">
+        <f>2.83+(0.5*4.99)</f>
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="H82" s="9"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="38"/>
+    </row>
+    <row r="83" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C83" s="146"/>
+      <c r="D83" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="101">
+        <v>1.53</v>
+      </c>
+      <c r="H83" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="I83" s="13"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="38"/>
+    </row>
+    <row r="84" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="67"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="97">
+        <f>SUM(G73:G83)</f>
         <v>65.709000000000017</v>
       </c>
-      <c r="H82" s="71"/>
-      <c r="I82" s="72"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67"/>
-      <c r="O82" s="67"/>
-    </row>
-    <row r="83" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="51"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="55"/>
-      <c r="L83" s="57"/>
-    </row>
-    <row r="84" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
-      <c r="B85" s="79"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="83"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="85"/>
-      <c r="J85" s="84"/>
-      <c r="K85" s="79"/>
-      <c r="L85" s="79"/>
-      <c r="M85" s="79"/>
-      <c r="N85" s="79"/>
-      <c r="O85" s="79"/>
-    </row>
-    <row r="86" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="87"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="90"/>
-      <c r="L86" s="92"/>
-    </row>
-    <row r="87" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="93" t="s">
+      <c r="H84" s="71"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
+    </row>
+    <row r="85" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="51"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="55"/>
+      <c r="L85" s="57"/>
+    </row>
+    <row r="86" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="79"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="83"/>
+      <c r="H87" s="84"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="84"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
+      <c r="M87" s="79"/>
+      <c r="N87" s="79"/>
+      <c r="O87" s="79"/>
+    </row>
+    <row r="88" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="87"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="90"/>
+      <c r="I88" s="91"/>
+      <c r="J88" s="90"/>
+      <c r="L88" s="92"/>
+    </row>
+    <row r="89" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="D87" s="94"/>
-      <c r="E87" s="18"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="64"/>
-    </row>
-    <row r="88" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C88" s="144"/>
-      <c r="D88" s="151" t="s">
-        <v>170</v>
-      </c>
-      <c r="E88" s="98"/>
-      <c r="F88" s="98"/>
-      <c r="G88" s="99">
-        <v>1.53</v>
-      </c>
-      <c r="H88" s="55"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="55"/>
-      <c r="L88" s="57"/>
-    </row>
-    <row r="89" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C89" s="144"/>
-      <c r="D89" s="151" t="s">
-        <v>167</v>
-      </c>
-      <c r="E89" s="98"/>
-      <c r="F89" s="98"/>
-      <c r="G89" s="99">
-        <v>33.57</v>
-      </c>
-      <c r="H89" s="55"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="55"/>
-      <c r="L89" s="57"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="18"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="64"/>
     </row>
     <row r="90" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C90" s="144"/>
       <c r="D90" s="151" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E90" s="98"/>
       <c r="F90" s="98"/>
       <c r="G90" s="99">
-        <v>6.56</v>
+        <v>1.53</v>
       </c>
       <c r="H90" s="55"/>
       <c r="I90" s="56"/>
@@ -4493,57 +4509,57 @@
     <row r="91" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C91" s="144"/>
       <c r="D91" s="151" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="E91" s="98"/>
       <c r="F91" s="98"/>
       <c r="G91" s="99">
-        <v>2.57</v>
+        <v>33.57</v>
       </c>
       <c r="H91" s="55"/>
       <c r="I91" s="56"/>
       <c r="J91" s="55"/>
       <c r="L91" s="57"/>
     </row>
-    <row r="92" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C92" s="145"/>
+    <row r="92" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C92" s="144"/>
       <c r="D92" s="151" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E92" s="98"/>
       <c r="F92" s="98"/>
       <c r="G92" s="99">
-        <v>0.02</v>
-      </c>
-      <c r="H92" s="10"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="10"/>
-      <c r="L92" s="35"/>
-    </row>
-    <row r="93" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C93" s="145"/>
+        <v>6.56</v>
+      </c>
+      <c r="H92" s="55"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="55"/>
+      <c r="L92" s="57"/>
+    </row>
+    <row r="93" spans="1:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C93" s="144"/>
       <c r="D93" s="151" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E93" s="98"/>
       <c r="F93" s="98"/>
       <c r="G93" s="99">
-        <v>0.77</v>
-      </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="10"/>
-      <c r="L93" s="35"/>
+        <v>2.57</v>
+      </c>
+      <c r="H93" s="55"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="55"/>
+      <c r="L93" s="57"/>
     </row>
     <row r="94" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C94" s="145"/>
-      <c r="D94" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="E94" s="155"/>
-      <c r="F94" s="155"/>
-      <c r="G94" s="156">
-        <v>1.53</v>
+      <c r="D94" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="98"/>
+      <c r="F94" s="98"/>
+      <c r="G94" s="99">
+        <v>0.02</v>
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="11"/>
@@ -4551,63 +4567,71 @@
       <c r="L94" s="35"/>
     </row>
     <row r="95" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C95" s="146"/>
-      <c r="D95" s="152" t="s">
-        <v>168</v>
-      </c>
-      <c r="E95" s="100"/>
-      <c r="F95" s="100"/>
-      <c r="G95" s="101">
-        <v>0.21</v>
-      </c>
-      <c r="H95" s="48"/>
+      <c r="C95" s="145"/>
+      <c r="D95" s="151" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" s="98"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="99">
+        <v>0.77</v>
+      </c>
+      <c r="H95" s="10"/>
       <c r="I95" s="11"/>
       <c r="J95" s="10"/>
       <c r="L95" s="35"/>
     </row>
-    <row r="96" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
-      <c r="B96" s="67"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="97">
-        <f>SUM(G88:G95)</f>
+    <row r="96" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C96" s="145"/>
+      <c r="D96" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" s="155"/>
+      <c r="F96" s="155"/>
+      <c r="G96" s="156">
+        <v>1.53</v>
+      </c>
+      <c r="H96" s="10"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="10"/>
+      <c r="L96" s="35"/>
+    </row>
+    <row r="97" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C97" s="146"/>
+      <c r="D97" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E97" s="100"/>
+      <c r="F97" s="100"/>
+      <c r="G97" s="101">
+        <v>0.21</v>
+      </c>
+      <c r="H97" s="48"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="10"/>
+      <c r="L97" s="35"/>
+    </row>
+    <row r="98" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="97">
+        <f>SUM(G90:G97)</f>
         <v>46.760000000000012</v>
       </c>
-      <c r="H96" s="71"/>
-      <c r="I96" s="72"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="67"/>
-      <c r="L96" s="67"/>
-      <c r="M96" s="67"/>
-      <c r="N96" s="67"/>
-      <c r="O96" s="67"/>
-    </row>
-    <row r="97" spans="3:12" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="51"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="55"/>
-      <c r="L97" s="57"/>
-    </row>
-    <row r="98" spans="3:12" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="51"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="56"/>
-      <c r="J98" s="55"/>
-      <c r="L98" s="57"/>
-    </row>
-    <row r="99" spans="3:12" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="71"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="67"/>
+      <c r="N98" s="67"/>
+      <c r="O98" s="67"/>
+    </row>
+    <row r="99" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C99" s="51"/>
       <c r="D99" s="52"/>
       <c r="E99" s="53"/>
@@ -4618,7 +4642,7 @@
       <c r="J99" s="55"/>
       <c r="L99" s="57"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C100" s="51"/>
       <c r="D100" s="52"/>
       <c r="E100" s="53"/>
@@ -4627,8 +4651,9 @@
       <c r="H100" s="55"/>
       <c r="I100" s="56"/>
       <c r="J100" s="55"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L100" s="57"/>
+    </row>
+    <row r="101" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C101" s="51"/>
       <c r="D101" s="52"/>
       <c r="E101" s="53"/>
@@ -4637,8 +4662,9 @@
       <c r="H101" s="55"/>
       <c r="I101" s="56"/>
       <c r="J101" s="55"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L101" s="57"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
       <c r="E102" s="53"/>
@@ -4648,7 +4674,7 @@
       <c r="I102" s="56"/>
       <c r="J102" s="55"/>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
       <c r="E103" s="53"/>
@@ -4658,7 +4684,7 @@
       <c r="I103" s="56"/>
       <c r="J103" s="55"/>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
       <c r="E104" s="53"/>
@@ -4668,7 +4694,7 @@
       <c r="I104" s="56"/>
       <c r="J104" s="55"/>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
       <c r="E105" s="53"/>
@@ -4678,7 +4704,7 @@
       <c r="I105" s="56"/>
       <c r="J105" s="55"/>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
       <c r="E106" s="53"/>
@@ -4688,7 +4714,7 @@
       <c r="I106" s="56"/>
       <c r="J106" s="55"/>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C107" s="51"/>
       <c r="D107" s="52"/>
       <c r="E107" s="53"/>
@@ -4698,7 +4724,7 @@
       <c r="I107" s="56"/>
       <c r="J107" s="55"/>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C108" s="51"/>
       <c r="D108" s="52"/>
       <c r="E108" s="53"/>
@@ -4708,7 +4734,7 @@
       <c r="I108" s="56"/>
       <c r="J108" s="55"/>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C109" s="51"/>
       <c r="D109" s="52"/>
       <c r="E109" s="53"/>
@@ -4718,7 +4744,7 @@
       <c r="I109" s="56"/>
       <c r="J109" s="55"/>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C110" s="51"/>
       <c r="D110" s="52"/>
       <c r="E110" s="53"/>
@@ -4728,7 +4754,7 @@
       <c r="I110" s="56"/>
       <c r="J110" s="55"/>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C111" s="51"/>
       <c r="D111" s="52"/>
       <c r="E111" s="53"/>
@@ -4738,7 +4764,7 @@
       <c r="I111" s="56"/>
       <c r="J111" s="55"/>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C112" s="51"/>
       <c r="D112" s="52"/>
       <c r="E112" s="53"/>
@@ -5288,16 +5314,44 @@
       <c r="I166" s="56"/>
       <c r="J166" s="55"/>
     </row>
+    <row r="167" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C167" s="51"/>
+      <c r="D167" s="52"/>
+      <c r="E167" s="53"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="54"/>
+      <c r="H167" s="55"/>
+      <c r="I167" s="56"/>
+      <c r="J167" s="55"/>
+    </row>
+    <row r="168" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C168" s="51"/>
+      <c r="D168" s="52"/>
+      <c r="E168" s="53"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="54"/>
+      <c r="H168" s="55"/>
+      <c r="I168" s="56"/>
+      <c r="J168" s="55"/>
+    </row>
   </sheetData>
   <sortState ref="C4:H19">
     <sortCondition ref="C4:C19"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="J4:J10"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="H41:H45"/>
     <mergeCell ref="I41:I45"/>
@@ -5314,19 +5368,11 @@
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="H38:H39"/>
     <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="J4:J10"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="H4:H10"/>
-    <mergeCell ref="I4:I10"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5343,7 +5389,7 @@
   </sheetPr>
   <dimension ref="B3:BG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY19" sqref="AY19"/>
     </sheetView>
   </sheetViews>
@@ -6234,21 +6280,21 @@
       <c r="AB16" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="AN16" s="190" t="s">
+      <c r="AN16" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="AO16" s="190"/>
-      <c r="AP16" s="190"/>
-      <c r="AQ16" s="190"/>
-      <c r="AT16" s="191" t="s">
+      <c r="AO16" s="205"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="205"/>
+      <c r="AT16" s="204" t="s">
         <v>119</v>
       </c>
-      <c r="AU16" s="191"/>
-      <c r="AV16" s="191"/>
-      <c r="AW16" s="191"/>
-      <c r="AX16" s="191"/>
-      <c r="AY16" s="191"/>
-      <c r="AZ16" s="191"/>
+      <c r="AU16" s="204"/>
+      <c r="AV16" s="204"/>
+      <c r="AW16" s="204"/>
+      <c r="AX16" s="204"/>
+      <c r="AY16" s="204"/>
+      <c r="AZ16" s="204"/>
     </row>
     <row r="17" spans="25:59" x14ac:dyDescent="0.25">
       <c r="Y17" s="108" t="s">
@@ -6263,35 +6309,35 @@
       <c r="AB17" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="AJ17" s="191" t="s">
+      <c r="AJ17" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="AK17" s="191"/>
-      <c r="AL17" s="191"/>
-      <c r="AN17" s="190"/>
-      <c r="AO17" s="190"/>
-      <c r="AP17" s="190"/>
-      <c r="AQ17" s="190"/>
+      <c r="AK17" s="204"/>
+      <c r="AL17" s="204"/>
+      <c r="AN17" s="205"/>
+      <c r="AO17" s="205"/>
+      <c r="AP17" s="205"/>
+      <c r="AQ17" s="205"/>
     </row>
     <row r="19" spans="25:59" x14ac:dyDescent="0.25">
-      <c r="AP19" s="203" t="s">
+      <c r="AP19" s="195" t="s">
         <v>222</v>
       </c>
       <c r="AQ19" s="117">
-        <f>INVENTORY!G82</f>
+        <f>INVENTORY!G84</f>
         <v>65.709000000000017</v>
       </c>
-      <c r="AS19" s="204" t="s">
+      <c r="AS19" s="196" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="20" spans="25:59" x14ac:dyDescent="0.25">
-      <c r="AK20" s="192" t="s">
+      <c r="AK20" s="206" t="s">
         <v>120</v>
       </c>
-      <c r="AL20" s="192"/>
-      <c r="AM20" s="192"/>
-      <c r="AP20" s="203" t="s">
+      <c r="AL20" s="206"/>
+      <c r="AM20" s="206"/>
+      <c r="AP20" s="195" t="s">
         <v>223</v>
       </c>
       <c r="AQ20" s="117">
@@ -6355,7 +6401,7 @@
       <c r="D2" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="205">
+      <c r="E2" s="197">
         <v>10</v>
       </c>
     </row>
@@ -6585,7 +6631,7 @@
         <f t="shared" si="1"/>
         <v>6.6300000000000008</v>
       </c>
-      <c r="H11" s="197">
+      <c r="H11" s="207">
         <v>3.39</v>
       </c>
       <c r="I11" s="172" t="s">
@@ -6615,7 +6661,7 @@
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="H12" s="197"/>
+      <c r="H12" s="207"/>
       <c r="I12" s="172" t="s">
         <v>192</v>
       </c>
@@ -6660,7 +6706,7 @@
       <c r="D14" s="174" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="206" t="str">
+      <c r="E14" s="198" t="str">
         <f>HYPERLINK("https://github.com/glydrfreak/vSpeedVario/tree/master/SolidWorks","SHAPEWAYS")</f>
         <v>SHAPEWAYS</v>
       </c>
@@ -6671,7 +6717,7 @@
         <f t="shared" si="1"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="H14" s="198">
+      <c r="H14" s="208">
         <v>4.99</v>
       </c>
       <c r="I14" s="172" t="s">
@@ -6689,7 +6735,7 @@
       <c r="D15" s="179" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="207" t="str">
+      <c r="E15" s="199" t="str">
         <f>HYPERLINK("https://github.com/glydrfreak/vSpeedVario/tree/master/SolidWorks","SHAPEWAYS")</f>
         <v>SHAPEWAYS</v>
       </c>
@@ -6700,7 +6746,7 @@
         <f t="shared" si="1"/>
         <v>28.3</v>
       </c>
-      <c r="H15" s="199"/>
+      <c r="H15" s="209"/>
       <c r="I15" s="182" t="s">
         <v>191</v>
       </c>
@@ -6769,7 +6815,7 @@
       <c r="F19" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="G19" s="201">
+      <c r="G19" s="193">
         <f>IF(E2=10,G18/10,G18)</f>
         <v>52.722000000000001</v>
       </c>
@@ -6822,7 +6868,7 @@
       <c r="I24" s="172"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="200" t="s">
+      <c r="C25" s="192" t="s">
         <v>214</v>
       </c>
       <c r="D25" s="179"/>
@@ -6864,7 +6910,7 @@
       <c r="F28" s="109" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="202">
+      <c r="G28" s="194">
         <f>G19-G27</f>
         <v>45.410000000000004</v>
       </c>
@@ -6884,7 +6930,7 @@
       <c r="I30" s="172"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="200" t="s">
+      <c r="C31" s="192" t="s">
         <v>216</v>
       </c>
       <c r="D31" s="179"/>
@@ -6926,7 +6972,7 @@
       <c r="F34" s="109" t="s">
         <v>209</v>
       </c>
-      <c r="G34" s="202">
+      <c r="G34" s="194">
         <f>G19-G33</f>
         <v>45.234999999999999</v>
       </c>
